--- a/3_output/tablas/ajust_table_soci.xlsx
+++ b/3_output/tablas/ajust_table_soci.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2386488417438151</v>
+        <v>0.2386472023987212</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/ajust_table_soci.xlsx
+++ b/3_output/tablas/ajust_table_soci.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>77.30653456323489</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8937246874339718</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.06148432582916463</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.2386472023987212</v>
+        <v>0.3920582124178325</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/ajust_table_soci.xlsx
+++ b/3_output/tablas/ajust_table_soci.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>77.30653456323489</v>
+        <v>77.13253181199616</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.8937246874339718</v>
+        <v>0.8940851131990224</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.06148432582916463</v>
+        <v>0.06137997724936079</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3920582124178325</v>
+        <v>0.3849804584980858</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/ajust_table_soci.xlsx
+++ b/3_output/tablas/ajust_table_soci.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>77.13253181199616</v>
+        <v>80.58260450488524</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.8940851131990224</v>
+        <v>0.886858658061739</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.06137997724936079</v>
+        <v>0.06366131036391072</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3849804584980858</v>
+        <v>0.3888316795868798</v>
       </c>
     </row>
   </sheetData>

--- a/3_output/tablas/ajust_table_soci.xlsx
+++ b/3_output/tablas/ajust_table_soci.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>80.58260450488524</v>
+        <v>54.78088418710104</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.886858658061739</v>
+        <v>0.9306427053331269</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.06366131036391072</v>
+        <v>0.05572639886396525</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3888316795868798</v>
+        <v>0.4148140362643069</v>
       </c>
     </row>
   </sheetData>
